--- a/reports/resnet18_23_no_MMTM/prediction/1/probability_val_1.xlsx
+++ b/reports/resnet18_23_no_MMTM/prediction/1/probability_val_1.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1989063620567322</v>
+        <v>0.2788816094398499</v>
       </c>
       <c r="C2" t="n">
-        <v>0.801093578338623</v>
+        <v>0.7211184501647949</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -473,10 +473,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5122250318527222</v>
+        <v>0.5812869668006897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4877749681472778</v>
+        <v>0.4187130630016327</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -489,10 +489,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3031688332557678</v>
+        <v>0.4735862612724304</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6968311071395874</v>
+        <v>0.5264137983322144</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2217283844947815</v>
+        <v>0.2711220383644104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7782715559005737</v>
+        <v>0.7288779020309448</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -521,10 +521,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9940176010131836</v>
+        <v>0.8663350343704224</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005982437636703253</v>
+        <v>0.1336649060249329</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9236400127410889</v>
+        <v>0.6477453112602234</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07636000961065292</v>
+        <v>0.3522546291351318</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -553,10 +553,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8641093969345093</v>
+        <v>0.4532312154769897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1358905732631683</v>
+        <v>0.5467687845230103</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -569,10 +569,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.980002760887146</v>
+        <v>0.8466665744781494</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01999725960195065</v>
+        <v>0.1533334404230118</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09654310345649719</v>
+        <v>0.1804211586713791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9034569263458252</v>
+        <v>0.8195788860321045</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -601,10 +601,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.08101677894592285</v>
+        <v>0.1440958678722382</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9189832210540771</v>
+        <v>0.8559041619300842</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1668047308921814</v>
+        <v>0.2498632371425629</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8331952691078186</v>
+        <v>0.7501367330551147</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -633,10 +633,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2165820151567459</v>
+        <v>0.31235671043396</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7834179997444153</v>
+        <v>0.68764328956604</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.388030618429184</v>
+        <v>0.4773989915847778</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6119693517684937</v>
+        <v>0.5226010084152222</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -665,10 +665,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1000279262661934</v>
+        <v>0.1438749879598618</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8999720811843872</v>
+        <v>0.8561249971389771</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.3162034153938293</v>
+        <v>0.486997663974762</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6837965846061707</v>
+        <v>0.513002336025238</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.280001163482666</v>
+        <v>0.442837119102478</v>
       </c>
       <c r="C17" t="n">
-        <v>0.719998836517334</v>
+        <v>0.557162880897522</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1824394464492798</v>
+        <v>0.3954935669898987</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8175605535507202</v>
+        <v>0.6045064330101013</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -729,10 +729,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0995827317237854</v>
+        <v>0.1378893852233887</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9004172682762146</v>
+        <v>0.8621106743812561</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3750746250152588</v>
+        <v>0.5633959174156189</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6249253749847412</v>
+        <v>0.4366041123867035</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -761,10 +761,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2667152881622314</v>
+        <v>0.217492014169693</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7332847118377686</v>
+        <v>0.7825079560279846</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.1053204908967018</v>
+        <v>0.1506909728050232</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8946794867515564</v>
+        <v>0.8493090867996216</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.09056562930345535</v>
+        <v>0.1294813752174377</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9094343781471252</v>
+        <v>0.8705186247825623</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
